--- a/Excel_resource/a/a.xlsx
+++ b/Excel_resource/a/a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26d8edcf25293144/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\King\Documents\GitHub\Excel_merger\Excel_resource\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4DBB64A54DDB1B405E386A8DDE2C154F90DF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B6D11F-AD9A-4391-9CBF-E651BEE1AF45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196AAFDF-5F07-403D-A439-827BB8B63FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="9990" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>S1A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +108,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -400,56 +384,98 @@
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>88</v>

--- a/Excel_resource/a/a.xlsx
+++ b/Excel_resource/a/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\King\Documents\GitHub\Excel_merger\Excel_resource\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196AAFDF-5F07-403D-A439-827BB8B63FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B11C51-8F40-47DC-AEFE-BDC0BC4FE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>S1A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>tt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -384,60 +396,18 @@
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="I1">
-        <v>9</v>
-      </c>
-      <c r="J1">
-        <v>10</v>
-      </c>
-      <c r="K1">
-        <v>11</v>
-      </c>
-      <c r="L1">
-        <v>12</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>14</v>
-      </c>
-      <c r="O1">
-        <v>15</v>
-      </c>
-      <c r="P1">
-        <v>16</v>
-      </c>
-      <c r="Q1">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -448,7 +418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -459,7 +429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -470,7 +440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
